--- a/va_facility_data_2025-02-20/Bruce W. Carter Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bruce%20W.%20Carter%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bruce W. Carter Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bruce%20W.%20Carter%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4956f565888e443c815d0bb7915fdb06"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R5a8220d69ab34321aa29605b5450c4db"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rf0010d26e15542e9adf1f46e5484f79b"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rfd93c34fc4e64e13a8860d720d231903"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R700edfa336ab422b8fcfe53ddb3c0367"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R086713c6533f45dd990462dbf95c762e"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rda07779f8bc042eeb0084165873cacf6"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rd1518912935749dbb64fbc8e280e531c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R07c6757a13bb4262a620f5a0a3776357"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc76409d7a36245c993eea018910972fa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Raee4a4a3d6a74813af6a36fa215c6ecc"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9dbfb37616f947d6a79ed5249def532c"/>
   </x:sheets>
 </x:workbook>
 </file>
